--- a/sputnik/personal/ee/10ee.xlsx
+++ b/sputnik/personal/ee/10ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,6 +34,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -47,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -88,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,11 +123,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -127,7 +152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -139,6 +164,17 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -446,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D20"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -457,37 +493,43 @@
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>43774</v>
       </c>
@@ -504,12 +546,19 @@
       <c r="E2" s="7">
         <v>4.49</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="10">
         <f t="shared" ref="F2:F7" si="0">D2*E2</f>
         <v>898</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="5">
+        <f>SUM(F2,F3)</f>
+        <v>1141</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -524,12 +573,14 @@
       <c r="E3" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <f t="shared" si="0"/>
         <v>243.00000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43738</v>
       </c>
@@ -546,12 +597,19 @@
       <c r="E4" s="7">
         <v>4.49</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>898</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <f>SUM(F4,F5)</f>
+        <v>1384</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -566,12 +624,14 @@
       <c r="E5" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>486.00000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43675</v>
       </c>
@@ -588,12 +648,19 @@
       <c r="E6" s="7">
         <v>4.49</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>1347</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="5">
+        <f>SUM(F6,F7)</f>
+        <v>2076</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -608,12 +675,14 @@
       <c r="E7" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>729</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43619</v>
       </c>
@@ -630,12 +699,19 @@
       <c r="E8" s="7">
         <v>4.57</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="10">
         <f t="shared" ref="F8:F13" si="2">D8*E8</f>
         <v>1371</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="5">
+        <f>SUM(F8,F9)</f>
+        <v>1849</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -650,12 +726,14 @@
       <c r="E9" s="2">
         <v>2.39</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="10">
         <f t="shared" si="2"/>
         <v>478</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43344</v>
       </c>
@@ -672,12 +750,19 @@
       <c r="E10" s="7">
         <v>4.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="10">
         <f t="shared" si="2"/>
         <v>2250</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5">
+        <f>SUM(F10,F11)</f>
+        <v>2955</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -692,12 +777,14 @@
       <c r="E11" s="2">
         <v>2.35</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="10">
         <f t="shared" si="2"/>
         <v>705</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43288</v>
       </c>
@@ -714,12 +801,19 @@
       <c r="E12" s="7">
         <v>4.5</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="10">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5">
+        <f>SUM(F12,F13)</f>
+        <v>1487.5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1487.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -734,12 +828,14 @@
       <c r="E13" s="2">
         <v>2.35</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="10">
         <f t="shared" si="2"/>
         <v>587.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43036</v>
       </c>
@@ -751,9 +847,11 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="11"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -763,7 +861,29 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(G2:G15)</f>
+        <v>10892.5</v>
+      </c>
+      <c r="H16" s="5">
+        <f>SUM(H2:H15)</f>
+        <v>10892.5</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/10ee.xlsx
+++ b/sputnik/personal/ee/10ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,31 +531,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>43774</v>
+        <v>43963</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(C2,-C4)</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E2" s="7">
         <v>4.49</v>
       </c>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
-        <v>898</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>1796</v>
       </c>
       <c r="G2" s="5">
         <f>SUM(F2,F3)</f>
-        <v>1141</v>
+        <v>2525</v>
       </c>
       <c r="H2" s="5">
-        <v>1141</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,31 +564,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(C3,-C5)</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E3" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="0"/>
-        <v>243.00000000000003</v>
+        <v>729</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43738</v>
+      <c r="A4" s="8">
+        <v>43774</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(C4,-C6)</f>
@@ -598,15 +598,15 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>898</v>
       </c>
       <c r="G4" s="5">
         <f>SUM(F4,F5)</f>
-        <v>1384</v>
+        <v>1141</v>
       </c>
       <c r="H4" s="5">
-        <v>1384</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -615,49 +615,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="D5" s="2">
         <f>SUM(C5,-C7)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E5" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="0"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="1"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>43675</v>
+        <v>43738</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D11" si="1">SUM(C6,-C8)</f>
-        <v>300</v>
+        <f>SUM(C6,-C8)</f>
+        <v>200</v>
       </c>
       <c r="E6" s="7">
         <v>4.49</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>1347</v>
+        <f t="shared" si="1"/>
+        <v>898</v>
       </c>
       <c r="G6" s="5">
         <f>SUM(F6,F7)</f>
-        <v>2076</v>
+        <v>1384</v>
       </c>
       <c r="H6" s="5">
-        <v>2076</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,49 +666,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f>SUM(C7,-C9)</f>
+        <v>200</v>
       </c>
       <c r="E7" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>729</v>
+        <f t="shared" si="1"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>43619</v>
+        <v>43675</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" ref="D8:D13" si="2">SUM(C8,-C10)</f>
+        <v>300</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" ref="F8:F13" si="2">D8*E8</f>
-        <v>1371</v>
+        <v>1347</v>
       </c>
       <c r="G8" s="5">
         <f>SUM(F8,F9)</f>
-        <v>1849</v>
+        <v>2076</v>
       </c>
       <c r="H8" s="5">
-        <v>1849</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,49 +717,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="2"/>
-        <v>478</v>
+        <v>729</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>43344</v>
+        <v>43619</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E10" s="7">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="2"/>
-        <v>2250</v>
+        <f t="shared" ref="F10:F15" si="3">D10*E10</f>
+        <v>1371</v>
       </c>
       <c r="G10" s="5">
         <f>SUM(F10,F11)</f>
-        <v>2955</v>
+        <v>1849</v>
       </c>
       <c r="H10" s="5">
-        <v>2955</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -768,49 +768,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E11" s="2">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="2"/>
-        <v>705</v>
+        <f t="shared" si="3"/>
+        <v>478</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43288</v>
+        <v>43344</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C14)</f>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="E12" s="7">
         <v>4.5</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="2"/>
-        <v>900</v>
+        <f t="shared" si="3"/>
+        <v>2250</v>
       </c>
       <c r="G12" s="5">
         <f>SUM(F12,F13)</f>
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
       <c r="H12" s="5">
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,71 +819,122 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="D13" s="2">
-        <f>SUM(C13,-C15)</f>
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E13" s="2">
         <v>2.35</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="2"/>
-        <v>587.5</v>
+        <f t="shared" si="3"/>
+        <v>705</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43036</v>
+        <v>43288</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
-        <v>4500</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="5"/>
+      <c r="C14" s="2">
+        <v>4700</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(C14,-C16)</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(F14,F15)</f>
+        <v>1487.5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1487.5</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
-        <v>2350</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="11"/>
+      <c r="C15" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(C15,-C17)</f>
+        <v>250</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="3"/>
+        <v>587.5</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="12" t="s">
+      <c r="A16" s="3">
+        <v>43036</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2350</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="5">
-        <f>SUM(G2:G15)</f>
-        <v>10892.5</v>
-      </c>
-      <c r="H16" s="5">
-        <f>SUM(H2:H15)</f>
-        <v>10892.5</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="12" t="s">
+      <c r="G18" s="5">
+        <f>SUM(G2:G17)</f>
+        <v>13417.5</v>
+      </c>
+      <c r="H18" s="5">
+        <f>SUM(H2:H17)</f>
+        <v>13417.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/10ee.xlsx
+++ b/sputnik/personal/ee/10ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,31 +531,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>43963</v>
+        <v>44018</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(C2,-C4)</f>
-        <v>400</v>
+        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
+        <v>500</v>
       </c>
       <c r="E2" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>1796</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>2355</v>
       </c>
       <c r="G2" s="5">
         <f>SUM(F2,F3)</f>
-        <v>2525</v>
+        <v>3120</v>
       </c>
       <c r="H2" s="5">
-        <v>2525</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,49 +564,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="D3" s="2">
-        <f>SUM(C3,-C5)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="E3" s="7">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" si="0"/>
-        <v>729</v>
+        <f t="shared" si="1"/>
+        <v>765</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43774</v>
+        <v>43963</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C6)</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
       <c r="E4" s="7">
         <v>4.49</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>898</v>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>1796</v>
       </c>
       <c r="G4" s="5">
         <f>SUM(F4,F5)</f>
-        <v>1141</v>
+        <v>2525</v>
       </c>
       <c r="H4" s="5">
-        <v>1141</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -615,49 +615,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C7)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="E5" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="1"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="2"/>
+        <v>729</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>43738</v>
+      <c r="A6" s="8">
+        <v>43774</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C8)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E6" s="7">
         <v>4.49</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F6:F11" si="3">D6*E6</f>
         <v>898</v>
       </c>
       <c r="G6" s="5">
         <f>SUM(F6,F7)</f>
-        <v>1384</v>
+        <v>1141</v>
       </c>
       <c r="H6" s="5">
-        <v>1384</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,49 +666,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C9)</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E7" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="1"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="3"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>43675</v>
+        <v>43738</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D13" si="2">SUM(C8,-C10)</f>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E8" s="7">
         <v>4.49</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="1"/>
-        <v>1347</v>
+        <f t="shared" si="3"/>
+        <v>898</v>
       </c>
       <c r="G8" s="5">
         <f>SUM(F8,F9)</f>
-        <v>2076</v>
+        <v>1384</v>
       </c>
       <c r="H8" s="5">
-        <v>2076</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,49 +717,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E9" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="1"/>
-        <v>729</v>
+        <f t="shared" si="3"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>43619</v>
+        <v>43675</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D10:D15" si="4">SUM(C10,-C12)</f>
         <v>300</v>
       </c>
       <c r="E10" s="7">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10:F15" si="3">D10*E10</f>
-        <v>1371</v>
+        <f t="shared" si="3"/>
+        <v>1347</v>
       </c>
       <c r="G10" s="5">
         <f>SUM(F10,F11)</f>
-        <v>1849</v>
+        <v>2076</v>
       </c>
       <c r="H10" s="5">
-        <v>1849</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -768,49 +768,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.39</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="3"/>
-        <v>478</v>
+        <v>729</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43344</v>
+        <v>43619</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>500</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="E12" s="7">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="3"/>
-        <v>2250</v>
+        <f t="shared" ref="F12:F17" si="5">D12*E12</f>
+        <v>1371</v>
       </c>
       <c r="G12" s="5">
         <f>SUM(F12,F13)</f>
-        <v>2955</v>
+        <v>1849</v>
       </c>
       <c r="H12" s="5">
-        <v>2955</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,49 +819,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E13" s="2">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="3"/>
-        <v>705</v>
+        <f t="shared" si="5"/>
+        <v>478</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43288</v>
+        <v>43344</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="D14" s="2">
-        <f>SUM(C14,-C16)</f>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>500</v>
       </c>
       <c r="E14" s="7">
         <v>4.5</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="3"/>
-        <v>900</v>
+        <f t="shared" si="5"/>
+        <v>2250</v>
       </c>
       <c r="G14" s="5">
         <f>SUM(F14,F15)</f>
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
       <c r="H14" s="5">
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -870,71 +870,122 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="D15" s="2">
-        <f>SUM(C15,-C17)</f>
-        <v>250</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="E15" s="2">
         <v>2.35</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="3"/>
-        <v>587.5</v>
+        <f t="shared" si="5"/>
+        <v>705</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43036</v>
+        <v>43288</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="4">
-        <v>4500</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="5"/>
+      <c r="C16" s="2">
+        <v>4700</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(C16,-C18)</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(F16,F17)</f>
+        <v>1487.5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1487.5</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
-        <v>2350</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM(C17,-C19)</f>
+        <v>250</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="5"/>
+        <v>587.5</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="12" t="s">
+      <c r="A18" s="3">
+        <v>43036</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2350</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="5">
-        <f>SUM(G2:G17)</f>
-        <v>13417.5</v>
-      </c>
-      <c r="H18" s="5">
-        <f>SUM(H2:H17)</f>
-        <v>13417.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="12" t="s">
+      <c r="G20" s="5">
+        <f>SUM(G2:G19)</f>
+        <v>16537.5</v>
+      </c>
+      <c r="H20" s="5">
+        <f>SUM(H2:H19)</f>
+        <v>16537.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/10ee.xlsx
+++ b/sputnik/personal/ee/10ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,31 +531,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>44018</v>
+        <v>44060</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
-        <v>500</v>
+        <f>SUM(C2,-C4)</f>
+        <v>400</v>
       </c>
       <c r="E2" s="7">
         <v>4.71</v>
       </c>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>2355</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>1884</v>
       </c>
       <c r="G2" s="5">
         <f>SUM(F2,F3)</f>
-        <v>3120</v>
+        <v>2649</v>
       </c>
       <c r="H2" s="5">
-        <v>3120</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,17 +564,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C3,-C5)</f>
         <v>300</v>
       </c>
       <c r="E3" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>765</v>
       </c>
       <c r="G3" s="2"/>
@@ -582,31 +582,31 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43963</v>
+        <v>44018</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <f>SUM(C4,-C8)</f>
+        <v>900</v>
       </c>
       <c r="E4" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>1796</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>4239</v>
       </c>
       <c r="G4" s="5">
         <f>SUM(F4,F5)</f>
-        <v>2525</v>
+        <v>5769</v>
       </c>
       <c r="H4" s="5">
-        <v>2525</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -615,49 +615,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>SUM(C5,-C9)</f>
+        <v>600</v>
       </c>
       <c r="E5" s="7">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="2"/>
-        <v>729</v>
+        <f t="shared" si="1"/>
+        <v>1530</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>43774</v>
+        <v>43963</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" ref="D6:D11" si="2">SUM(C6,-C8)</f>
+        <v>400</v>
       </c>
       <c r="E6" s="7">
         <v>4.49</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F11" si="3">D6*E6</f>
-        <v>898</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>1796</v>
       </c>
       <c r="G6" s="5">
         <f>SUM(F6,F7)</f>
-        <v>1141</v>
+        <v>2525</v>
       </c>
       <c r="H6" s="5">
-        <v>1141</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,49 +666,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E7" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="3"/>
-        <v>243.00000000000003</v>
+        <v>729</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43738</v>
+      <c r="A8" s="8">
+        <v>43774</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="E8" s="7">
         <v>4.49</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F8:F13" si="4">D8*E8</f>
         <v>898</v>
       </c>
       <c r="G8" s="5">
         <f>SUM(F8,F9)</f>
-        <v>1384</v>
+        <v>1141</v>
       </c>
       <c r="H8" s="5">
-        <v>1384</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,49 +717,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E9" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="3"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="4"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>43675</v>
+        <v>43738</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D15" si="4">SUM(C10,-C12)</f>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E10" s="7">
         <v>4.49</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="3"/>
-        <v>1347</v>
+        <f t="shared" si="4"/>
+        <v>898</v>
       </c>
       <c r="G10" s="5">
         <f>SUM(F10,F11)</f>
-        <v>2076</v>
+        <v>1384</v>
       </c>
       <c r="H10" s="5">
-        <v>2076</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -768,49 +768,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E11" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="3"/>
-        <v>729</v>
+        <f t="shared" si="4"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43619</v>
+        <v>43675</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" ref="D12:D17" si="5">SUM(C12,-C14)</f>
+        <v>300</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="10">
         <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F17" si="5">D12*E12</f>
-        <v>1371</v>
+        <v>1347</v>
       </c>
       <c r="G12" s="5">
         <f>SUM(F12,F13)</f>
-        <v>1849</v>
+        <v>2076</v>
       </c>
       <c r="H12" s="5">
-        <v>1849</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,49 +819,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="10">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="5"/>
-        <v>478</v>
+        <v>729</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43344</v>
+        <v>43619</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="4"/>
-        <v>500</v>
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="E14" s="7">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="5"/>
-        <v>2250</v>
+        <f t="shared" ref="F14:F19" si="6">D14*E14</f>
+        <v>1371</v>
       </c>
       <c r="G14" s="5">
         <f>SUM(F14,F15)</f>
-        <v>2955</v>
+        <v>1849</v>
       </c>
       <c r="H14" s="5">
-        <v>2955</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -870,49 +870,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
       <c r="E15" s="2">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="5"/>
-        <v>705</v>
+        <f t="shared" si="6"/>
+        <v>478</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43288</v>
+        <v>43344</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="D16" s="2">
-        <f>SUM(C16,-C18)</f>
-        <v>200</v>
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="E16" s="7">
         <v>4.5</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="5"/>
-        <v>900</v>
+        <f t="shared" si="6"/>
+        <v>2250</v>
       </c>
       <c r="G16" s="5">
         <f>SUM(F16,F17)</f>
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
       <c r="H16" s="5">
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -921,71 +921,125 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="D17" s="2">
-        <f>SUM(C17,-C19)</f>
-        <v>250</v>
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="E17" s="2">
         <v>2.35</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="5"/>
-        <v>587.5</v>
+        <f t="shared" si="6"/>
+        <v>705</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>43036</v>
+        <v>43288</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="4">
-        <v>4500</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="5"/>
+      <c r="C18" s="2">
+        <v>4700</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM(C18,-C20)</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="G18" s="5">
+        <f>SUM(F18,F19)</f>
+        <v>1487.5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1487.5</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
-        <v>2350</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="11"/>
+      <c r="C19" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM(C19,-C21)</f>
+        <v>250</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="6"/>
+        <v>587.5</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="12" t="s">
+      <c r="A20" s="3">
+        <v>43036</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2350</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="5">
-        <f>SUM(G2:G19)</f>
-        <v>16537.5</v>
-      </c>
-      <c r="H20" s="5">
-        <f>SUM(H2:H19)</f>
-        <v>16537.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="12" t="s">
+      <c r="G22" s="5">
+        <f>SUM(G2:G21)</f>
+        <v>21835.5</v>
+      </c>
+      <c r="H22" s="5">
+        <f>SUM(H2:H21)</f>
+        <v>18931.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13">
+        <f>SUM(H22,-G22)</f>
+        <v>-2904</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/10ee.xlsx
+++ b/sputnik/personal/ee/10ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,25 +537,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(C2,-C4)</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E2" s="7">
         <v>4.71</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>1884</v>
+        <v>942</v>
       </c>
       <c r="G2" s="5">
         <f>SUM(F2,F3)</f>
-        <v>2649</v>
+        <v>1452</v>
       </c>
       <c r="H2" s="5">
-        <v>2394</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,49 +564,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(C3,-C5)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E3" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="0"/>
-        <v>765</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>44018</v>
+        <v>44060</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C8)</f>
-        <v>900</v>
+        <f>SUM(C4,-C6)</f>
+        <v>400</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>4239</v>
+        <v>1884</v>
       </c>
       <c r="G4" s="5">
         <f>SUM(F4,F5)</f>
-        <v>5769</v>
+        <v>2649</v>
       </c>
       <c r="H4" s="5">
-        <v>3120</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -615,49 +615,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C9)</f>
-        <v>600</v>
+        <f>SUM(C5,-C7)</f>
+        <v>300</v>
       </c>
       <c r="E5" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>1530</v>
+        <v>765</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>43963</v>
+        <v>44018</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D11" si="2">SUM(C6,-C8)</f>
-        <v>400</v>
+        <f>SUM(C6,-C10)</f>
+        <v>900</v>
       </c>
       <c r="E6" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>1796</v>
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
+        <v>4239</v>
       </c>
       <c r="G6" s="5">
         <f>SUM(F6,F7)</f>
-        <v>2525</v>
+        <v>5769</v>
       </c>
       <c r="H6" s="5">
-        <v>2525</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,49 +666,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="D7" s="2">
+        <f>SUM(C7,-C11)</f>
+        <v>600</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="3"/>
-        <v>729</v>
+        <v>1530</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>43774</v>
+        <v>43963</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" ref="D8:D13" si="3">SUM(C8,-C10)</f>
+        <v>400</v>
       </c>
       <c r="E8" s="7">
         <v>4.49</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:F13" si="4">D8*E8</f>
-        <v>898</v>
+        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <v>1796</v>
       </c>
       <c r="G8" s="5">
         <f>SUM(F8,F9)</f>
-        <v>1141</v>
+        <v>2525</v>
       </c>
       <c r="H8" s="5">
-        <v>1141</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,49 +717,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="E9" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="4"/>
-        <v>243.00000000000003</v>
+        <v>729</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43738</v>
+      <c r="A10" s="8">
+        <v>43774</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="E10" s="7">
         <v>4.49</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F10:F15" si="5">D10*E10</f>
         <v>898</v>
       </c>
       <c r="G10" s="5">
         <f>SUM(F10,F11)</f>
-        <v>1384</v>
+        <v>1141</v>
       </c>
       <c r="H10" s="5">
-        <v>1384</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -768,49 +768,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="E11" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="4"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="5"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43675</v>
+        <v>43738</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D17" si="5">SUM(C12,-C14)</f>
-        <v>300</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="E12" s="7">
         <v>4.49</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="4"/>
-        <v>1347</v>
+        <f t="shared" si="5"/>
+        <v>898</v>
       </c>
       <c r="G12" s="5">
         <f>SUM(F12,F13)</f>
-        <v>2076</v>
+        <v>1384</v>
       </c>
       <c r="H12" s="5">
-        <v>2076</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,49 +819,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="5"/>
-        <v>300</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="E13" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="4"/>
-        <v>729</v>
+        <f t="shared" si="5"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43619</v>
+        <v>43675</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" ref="D14:D19" si="6">SUM(C14,-C16)</f>
+        <v>300</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="10">
         <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:F19" si="6">D14*E14</f>
-        <v>1371</v>
+        <v>1347</v>
       </c>
       <c r="G14" s="5">
         <f>SUM(F14,F15)</f>
-        <v>1849</v>
+        <v>2076</v>
       </c>
       <c r="H14" s="5">
-        <v>1849</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -870,49 +870,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="10">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="6"/>
-        <v>478</v>
+        <v>729</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43344</v>
+        <v>43619</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <f t="shared" si="6"/>
+        <v>300</v>
       </c>
       <c r="E16" s="7">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="6"/>
-        <v>2250</v>
+        <f t="shared" ref="F16:F21" si="7">D16*E16</f>
+        <v>1371</v>
       </c>
       <c r="G16" s="5">
         <f>SUM(F16,F17)</f>
-        <v>2955</v>
+        <v>1849</v>
       </c>
       <c r="H16" s="5">
-        <v>2955</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -921,49 +921,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="5"/>
-        <v>300</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E17" s="2">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="6"/>
-        <v>705</v>
+        <f t="shared" si="7"/>
+        <v>478</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>43288</v>
+        <v>43344</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="D18" s="2">
-        <f>SUM(C18,-C20)</f>
-        <v>200</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="E18" s="7">
         <v>4.5</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="6"/>
-        <v>900</v>
+        <f t="shared" si="7"/>
+        <v>2250</v>
       </c>
       <c r="G18" s="5">
         <f>SUM(F18,F19)</f>
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
       <c r="H18" s="5">
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -972,72 +972,123 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="D19" s="2">
-        <f>SUM(C19,-C21)</f>
-        <v>250</v>
+        <f t="shared" si="6"/>
+        <v>300</v>
       </c>
       <c r="E19" s="2">
         <v>2.35</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="6"/>
-        <v>587.5</v>
+        <f t="shared" si="7"/>
+        <v>705</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43036</v>
+        <v>43288</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4">
-        <v>4500</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="5"/>
+      <c r="C20" s="2">
+        <v>4700</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM(C20,-C22)</f>
+        <v>200</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+      <c r="G20" s="5">
+        <f>SUM(F20,F21)</f>
+        <v>1487.5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1487.5</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="4">
-        <v>2350</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="11"/>
+      <c r="C21" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM(C21,-C23)</f>
+        <v>250</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="7"/>
+        <v>587.5</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="12" t="s">
+      <c r="A22" s="3">
+        <v>43036</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2350</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="5">
-        <f>SUM(G2:G21)</f>
+      <c r="G24" s="5">
+        <f>SUM(G4:G23)</f>
         <v>21835.5</v>
       </c>
-      <c r="H22" s="5">
-        <f>SUM(H2:H21)</f>
+      <c r="H24" s="5">
+        <f>SUM(H4:H23)</f>
         <v>18931.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="12" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13">
+        <f>SUM(H24,-G24)</f>
         <v>-2904</v>
       </c>
     </row>

--- a/sputnik/personal/ee/10ee.xlsx
+++ b/sputnik/personal/ee/10ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +91,25 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -140,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,6 +187,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A4" sqref="A4:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,31 +549,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>44060</v>
+        <v>44158</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(C2,-C4)</f>
-        <v>200</v>
+        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
+        <v>300</v>
       </c>
       <c r="E2" s="7">
         <v>4.71</v>
       </c>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>942</v>
-      </c>
-      <c r="G2" s="5">
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>1413</v>
+      </c>
+      <c r="G2" s="14">
         <f>SUM(F2,F3)</f>
-        <v>1452</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1452</v>
+        <v>1923</v>
+      </c>
+      <c r="H2" s="14">
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,253 +582,253 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="2">
-        <f>SUM(C3,-C5)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E3" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>509.99999999999994</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>44060</v>
+      <c r="A4" s="15">
+        <v>44099</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C6)</f>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>1884</v>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>942</v>
       </c>
       <c r="G4" s="5">
         <f>SUM(F4,F5)</f>
-        <v>2649</v>
+        <v>1452</v>
       </c>
       <c r="H4" s="5">
-        <v>2394</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C7)</f>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E5" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="1"/>
-        <v>765</v>
+        <f t="shared" si="2"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>44018</v>
+      <c r="A6" s="15">
+        <v>44060</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C10)</f>
-        <v>900</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
-        <v>4239</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>1884</v>
       </c>
       <c r="G6" s="5">
         <f>SUM(F6,F7)</f>
-        <v>5769</v>
+        <v>2649</v>
       </c>
       <c r="H6" s="5">
-        <v>3120</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C11)</f>
-        <v>600</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="E7" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="2"/>
-        <v>1530</v>
+        <f t="shared" si="3"/>
+        <v>765</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43963</v>
+      <c r="A8" s="15">
+        <v>44018</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D13" si="3">SUM(C8,-C10)</f>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="E8" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" ref="F8:F9" si="4">D8*E8</f>
-        <v>1796</v>
+        <v>2355</v>
       </c>
       <c r="G8" s="5">
         <f>SUM(F8,F9)</f>
-        <v>2525</v>
+        <v>3120</v>
       </c>
       <c r="H8" s="5">
-        <v>2525</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="E9" s="7">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="4"/>
-        <v>729</v>
+        <v>765</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43774</v>
+      <c r="A10" s="15">
+        <v>43963</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f t="shared" ref="D10:D15" si="5">SUM(C10,-C12)</f>
+        <v>400</v>
       </c>
       <c r="E10" s="7">
         <v>4.49</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10:F15" si="5">D10*E10</f>
-        <v>898</v>
+        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
+        <v>1796</v>
       </c>
       <c r="G10" s="5">
         <f>SUM(F10,F11)</f>
-        <v>1141</v>
+        <v>2525</v>
       </c>
       <c r="H10" s="5">
-        <v>1141</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="E11" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="5"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="6"/>
+        <v>729</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>43738</v>
+      <c r="A12" s="15">
+        <v>43774</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="E12" s="7">
         <v>4.49</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F12:F17" si="7">D12*E12</f>
         <v>898</v>
       </c>
       <c r="G12" s="5">
         <f>SUM(F12,F13)</f>
-        <v>1384</v>
+        <v>1141</v>
       </c>
       <c r="H12" s="5">
-        <v>1384</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,49 +837,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="E13" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="5"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="7"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43675</v>
+        <v>43738</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D19" si="6">SUM(C14,-C16)</f>
-        <v>300</v>
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
       <c r="E14" s="7">
         <v>4.49</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="5"/>
-        <v>1347</v>
+        <f t="shared" si="7"/>
+        <v>898</v>
       </c>
       <c r="G14" s="5">
         <f>SUM(F14,F15)</f>
-        <v>2076</v>
+        <v>1384</v>
       </c>
       <c r="H14" s="5">
-        <v>2076</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -870,49 +888,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
-        <v>300</v>
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
       <c r="E15" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="5"/>
-        <v>729</v>
+        <f t="shared" si="7"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43619</v>
+        <v>43675</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D16:D21" si="8">SUM(C16,-C18)</f>
         <v>300</v>
       </c>
       <c r="E16" s="7">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" ref="F16:F21" si="7">D16*E16</f>
-        <v>1371</v>
+        <f t="shared" si="7"/>
+        <v>1347</v>
       </c>
       <c r="G16" s="5">
         <f>SUM(F16,F17)</f>
-        <v>1849</v>
+        <v>2076</v>
       </c>
       <c r="H16" s="5">
-        <v>1849</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -921,49 +939,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.39</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="7"/>
-        <v>478</v>
+        <v>729</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>43344</v>
+        <v>43619</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
-        <v>500</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
       </c>
       <c r="E18" s="7">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="7"/>
-        <v>2250</v>
+        <f t="shared" ref="F18:F23" si="9">D18*E18</f>
+        <v>1371</v>
       </c>
       <c r="G18" s="5">
         <f>SUM(F18,F19)</f>
-        <v>2955</v>
+        <v>1849</v>
       </c>
       <c r="H18" s="5">
-        <v>2955</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -972,49 +990,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
-        <v>300</v>
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E19" s="2">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="7"/>
-        <v>705</v>
+        <f t="shared" si="9"/>
+        <v>478</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43288</v>
+        <v>43344</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="D20" s="2">
-        <f>SUM(C20,-C22)</f>
-        <v>200</v>
+        <f t="shared" si="8"/>
+        <v>500</v>
       </c>
       <c r="E20" s="7">
         <v>4.5</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="7"/>
-        <v>900</v>
+        <f t="shared" si="9"/>
+        <v>2250</v>
       </c>
       <c r="G20" s="5">
         <f>SUM(F20,F21)</f>
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
       <c r="H20" s="5">
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,73 +1041,124 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="D21" s="2">
-        <f>SUM(C21,-C23)</f>
-        <v>250</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
       </c>
       <c r="E21" s="2">
         <v>2.35</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="7"/>
-        <v>587.5</v>
+        <f t="shared" si="9"/>
+        <v>705</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>43036</v>
+        <v>43288</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="4">
-        <v>4500</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="5"/>
+      <c r="C22" s="2">
+        <v>4700</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(C22,-C24)</f>
+        <v>200</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="9"/>
+        <v>900</v>
+      </c>
+      <c r="G22" s="5">
+        <f>SUM(F22,F23)</f>
+        <v>1487.5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1487.5</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
-        <v>2350</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="11"/>
+      <c r="C23" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM(C23,-C25)</f>
+        <v>250</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="9"/>
+        <v>587.5</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="12" t="s">
+      <c r="A24" s="3">
+        <v>43036</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2350</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="5">
-        <f>SUM(G4:G23)</f>
-        <v>21835.5</v>
-      </c>
-      <c r="H24" s="5">
-        <f>SUM(H4:H23)</f>
-        <v>18931.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="12" t="s">
+      <c r="G26" s="5">
+        <f>SUM(G4:G25)</f>
+        <v>20638.5</v>
+      </c>
+      <c r="H26" s="5">
+        <f>SUM(H4:H25)</f>
+        <v>20383.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13">
-        <f>SUM(H24,-G24)</f>
-        <v>-2904</v>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13">
+        <f>SUM(H26,-G26)</f>
+        <v>-255</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/10ee.xlsx
+++ b/sputnik/personal/ee/10ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,6 +191,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A12"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -549,31 +552,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>44158</v>
+        <v>44347</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
-        <v>300</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>100</v>
       </c>
       <c r="E2" s="7">
         <v>4.71</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1413</v>
+        <v>471</v>
       </c>
       <c r="G2" s="14">
         <f>SUM(F2,F3)</f>
-        <v>1923</v>
+        <v>598.5</v>
       </c>
       <c r="H2" s="14">
-        <v>726</v>
+        <v>598.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -582,68 +585,68 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>5000</v>
+        <v>5050</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="1"/>
-        <v>509.99999999999994</v>
+        <v>127.49999999999999</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>44099</v>
+      <c r="A4" s="8">
+        <v>44158</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>7700</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>8000</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
+        <v>300</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>942</v>
-      </c>
-      <c r="G4" s="5">
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>1413</v>
+      </c>
+      <c r="G4" s="14">
         <f>SUM(F4,F5)</f>
-        <v>1452</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1452</v>
+        <v>1923</v>
+      </c>
+      <c r="H4" s="14">
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4800</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="E5" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>509.99999999999994</v>
       </c>
       <c r="G5" s="2"/>
@@ -651,31 +654,31 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44060</v>
+        <v>44099</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>1884</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>942</v>
       </c>
       <c r="G6" s="5">
         <f>SUM(F6,F7)</f>
-        <v>2649</v>
+        <v>1452</v>
       </c>
       <c r="H6" s="5">
-        <v>2394</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -684,49 +687,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E7" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="3"/>
-        <v>765</v>
+        <f t="shared" si="4"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>44018</v>
+        <v>44060</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
-        <v>2355</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>1884</v>
       </c>
       <c r="G8" s="5">
         <f>SUM(F8,F9)</f>
-        <v>3120</v>
+        <v>2649</v>
       </c>
       <c r="H8" s="5">
-        <v>3120</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -735,17 +738,17 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="E9" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>765</v>
       </c>
       <c r="G9" s="2"/>
@@ -753,31 +756,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>43963</v>
+        <v>44018</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D15" si="5">SUM(C10,-C12)</f>
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="E10" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" ref="F10:F11" si="6">D10*E10</f>
-        <v>1796</v>
+        <v>2355</v>
       </c>
       <c r="G10" s="5">
         <f>SUM(F10,F11)</f>
-        <v>2525</v>
+        <v>3120</v>
       </c>
       <c r="H10" s="5">
-        <v>2525</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -786,100 +789,100 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="E11" s="7">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="6"/>
-        <v>729</v>
+        <v>765</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>43774</v>
+        <v>43963</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f t="shared" ref="D12:D17" si="7">SUM(C12,-C14)</f>
+        <v>400</v>
       </c>
       <c r="E12" s="7">
         <v>4.49</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" ref="F12:F17" si="7">D12*E12</f>
-        <v>898</v>
+        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
+        <v>1796</v>
       </c>
       <c r="G12" s="5">
         <f>SUM(F12,F13)</f>
-        <v>1141</v>
+        <v>2525</v>
       </c>
       <c r="H12" s="5">
-        <v>1141</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>300</v>
       </c>
       <c r="E13" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="7"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="8"/>
+        <v>729</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>43738</v>
+      <c r="A14" s="15">
+        <v>43774</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="E14" s="7">
         <v>4.49</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F14:F19" si="9">D14*E14</f>
         <v>898</v>
       </c>
       <c r="G14" s="5">
         <f>SUM(F14,F15)</f>
-        <v>1384</v>
+        <v>1141</v>
       </c>
       <c r="H14" s="5">
-        <v>1384</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -888,49 +891,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="E15" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="7"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="9"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43675</v>
+        <v>43738</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:D21" si="8">SUM(C16,-C18)</f>
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="E16" s="7">
         <v>4.49</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="7"/>
-        <v>1347</v>
+        <f t="shared" si="9"/>
+        <v>898</v>
       </c>
       <c r="G16" s="5">
         <f>SUM(F16,F17)</f>
-        <v>2076</v>
+        <v>1384</v>
       </c>
       <c r="H16" s="5">
-        <v>2076</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -939,49 +942,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="E17" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="7"/>
-        <v>729</v>
+        <f t="shared" si="9"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>43619</v>
+        <v>43675</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D18:D23" si="10">SUM(C18,-C20)</f>
         <v>300</v>
       </c>
       <c r="E18" s="7">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" ref="F18:F23" si="9">D18*E18</f>
-        <v>1371</v>
+        <f t="shared" si="9"/>
+        <v>1347</v>
       </c>
       <c r="G18" s="5">
         <f>SUM(F18,F19)</f>
-        <v>1849</v>
+        <v>2076</v>
       </c>
       <c r="H18" s="5">
-        <v>1849</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -990,49 +993,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.39</v>
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="9"/>
-        <v>478</v>
+        <v>729</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43344</v>
+        <v>43619</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="8"/>
-        <v>500</v>
+        <f t="shared" si="10"/>
+        <v>300</v>
       </c>
       <c r="E20" s="7">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="9"/>
-        <v>2250</v>
+        <f t="shared" ref="F20:F25" si="11">D20*E20</f>
+        <v>1371</v>
       </c>
       <c r="G20" s="5">
         <f>SUM(F20,F21)</f>
-        <v>2955</v>
+        <v>1849</v>
       </c>
       <c r="H20" s="5">
-        <v>2955</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1041,49 +1044,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="8"/>
-        <v>300</v>
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E21" s="2">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="9"/>
-        <v>705</v>
+        <f t="shared" si="11"/>
+        <v>478</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>43288</v>
+        <v>43344</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="D22" s="2">
-        <f>SUM(C22,-C24)</f>
-        <v>200</v>
+        <f t="shared" si="10"/>
+        <v>500</v>
       </c>
       <c r="E22" s="7">
         <v>4.5</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" si="9"/>
-        <v>900</v>
+        <f t="shared" si="11"/>
+        <v>2250</v>
       </c>
       <c r="G22" s="5">
         <f>SUM(F22,F23)</f>
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
       <c r="H22" s="5">
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1092,72 +1095,123 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="D23" s="2">
-        <f>SUM(C23,-C25)</f>
-        <v>250</v>
+        <f t="shared" si="10"/>
+        <v>300</v>
       </c>
       <c r="E23" s="2">
         <v>2.35</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="9"/>
-        <v>587.5</v>
+        <f t="shared" si="11"/>
+        <v>705</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>43036</v>
+        <v>43288</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="4">
-        <v>4500</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="5"/>
+      <c r="C24" s="2">
+        <v>4700</v>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM(C24,-C26)</f>
+        <v>200</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="11"/>
+        <v>900</v>
+      </c>
+      <c r="G24" s="5">
+        <f>SUM(F24,F25)</f>
+        <v>1487.5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1487.5</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="4">
-        <v>2350</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="11"/>
+      <c r="C25" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D25" s="2">
+        <f>SUM(C25,-C27)</f>
+        <v>250</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="11"/>
+        <v>587.5</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="12" t="s">
+      <c r="A26" s="3">
+        <v>43036</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2350</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="5">
-        <f>SUM(G4:G25)</f>
+      <c r="G28" s="5">
+        <f>SUM(G6:G27)</f>
         <v>20638.5</v>
       </c>
-      <c r="H26" s="5">
-        <f>SUM(H4:H25)</f>
+      <c r="H28" s="5">
+        <f>SUM(H6:H27)</f>
         <v>20383.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="12" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13">
+        <f>SUM(H28,-G28)</f>
         <v>-255</v>
       </c>
     </row>

--- a/sputnik/personal/ee/10ee.xlsx
+++ b/sputnik/personal/ee/10ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -98,7 +98,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -194,6 +200,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -552,31 +561,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>44347</v>
+        <v>44390</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E2" s="7">
         <v>4.71</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>471</v>
-      </c>
-      <c r="G2" s="14">
+        <v>1413</v>
+      </c>
+      <c r="G2" s="17">
         <f>SUM(F2,F3)</f>
-        <v>598.5</v>
-      </c>
-      <c r="H2" s="14">
-        <v>598.5</v>
+        <v>1795.5</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1795.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -585,49 +594,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>5050</v>
+        <v>5200</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E3" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="1"/>
-        <v>127.49999999999999</v>
+        <v>382.5</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>44158</v>
+        <v>44347</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D4" s="16">
-        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
-        <v>300</v>
+        <v>8100</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>100</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1413</v>
+        <v>471</v>
       </c>
       <c r="G4" s="14">
         <f>SUM(F4,F5)</f>
-        <v>1923</v>
+        <v>598.5</v>
       </c>
       <c r="H4" s="14">
-        <v>726</v>
+        <v>598.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -636,68 +645,68 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D5" s="16">
+        <v>5050</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E5" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="3"/>
-        <v>509.99999999999994</v>
+        <v>127.49999999999999</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>44099</v>
+      <c r="A6" s="8">
+        <v>44158</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>7700</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <v>8000</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
+        <v>300</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>942</v>
-      </c>
-      <c r="G6" s="5">
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>1413</v>
+      </c>
+      <c r="G6" s="14">
         <f>SUM(F6,F7)</f>
-        <v>1452</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1452</v>
+        <v>1923</v>
+      </c>
+      <c r="H6" s="14">
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>4800</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="E7" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>509.99999999999994</v>
       </c>
       <c r="G7" s="2"/>
@@ -705,31 +714,31 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>44060</v>
+        <v>44099</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>1884</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>942</v>
       </c>
       <c r="G8" s="5">
         <f>SUM(F8,F9)</f>
-        <v>2649</v>
+        <v>1452</v>
       </c>
       <c r="H8" s="5">
-        <v>2394</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -738,49 +747,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E9" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="5"/>
-        <v>765</v>
+        <f t="shared" si="6"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>44018</v>
+        <v>44060</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>500</v>
+        <f t="shared" si="4"/>
+        <v>400</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
-        <v>2355</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>1884</v>
       </c>
       <c r="G10" s="5">
         <f>SUM(F10,F11)</f>
-        <v>3120</v>
+        <v>2649</v>
       </c>
       <c r="H10" s="5">
-        <v>3120</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,17 +798,17 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E11" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>765</v>
       </c>
       <c r="G11" s="2"/>
@@ -807,31 +816,31 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>43963</v>
+        <v>44018</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D17" si="7">SUM(C12,-C14)</f>
-        <v>400</v>
+        <f t="shared" si="4"/>
+        <v>500</v>
       </c>
       <c r="E12" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" ref="F12:F13" si="8">D12*E12</f>
-        <v>1796</v>
+        <v>2355</v>
       </c>
       <c r="G12" s="5">
         <f>SUM(F12,F13)</f>
-        <v>2525</v>
+        <v>3120</v>
       </c>
       <c r="H12" s="5">
-        <v>2525</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -840,100 +849,100 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E13" s="7">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="8"/>
-        <v>729</v>
+        <v>765</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>43774</v>
+        <v>43963</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="7"/>
-        <v>200</v>
+        <f t="shared" ref="D14:D19" si="9">SUM(C14,-C16)</f>
+        <v>400</v>
       </c>
       <c r="E14" s="7">
         <v>4.49</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" ref="F14:F19" si="9">D14*E14</f>
-        <v>898</v>
+        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
+        <v>1796</v>
       </c>
       <c r="G14" s="5">
         <f>SUM(F14,F15)</f>
-        <v>1141</v>
+        <v>2525</v>
       </c>
       <c r="H14" s="5">
-        <v>1141</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="7"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>300</v>
       </c>
       <c r="E15" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="9"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="10"/>
+        <v>729</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>43738</v>
+      <c r="A16" s="15">
+        <v>43774</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="E16" s="7">
         <v>4.49</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F16:F21" si="11">D16*E16</f>
         <v>898</v>
       </c>
       <c r="G16" s="5">
         <f>SUM(F16,F17)</f>
-        <v>1384</v>
+        <v>1141</v>
       </c>
       <c r="H16" s="5">
-        <v>1384</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -942,49 +951,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="7"/>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
       <c r="E17" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="9"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="11"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>43675</v>
+        <v>43738</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ref="D18:D23" si="10">SUM(C18,-C20)</f>
-        <v>300</v>
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
       <c r="E18" s="7">
         <v>4.49</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="9"/>
-        <v>1347</v>
+        <f t="shared" si="11"/>
+        <v>898</v>
       </c>
       <c r="G18" s="5">
         <f>SUM(F18,F19)</f>
-        <v>2076</v>
+        <v>1384</v>
       </c>
       <c r="H18" s="5">
-        <v>2076</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -993,49 +1002,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="10"/>
-        <v>300</v>
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
       <c r="E19" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="9"/>
-        <v>729</v>
+        <f t="shared" si="11"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43619</v>
+        <v>43675</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D20:D25" si="12">SUM(C20,-C22)</f>
         <v>300</v>
       </c>
       <c r="E20" s="7">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" ref="F20:F25" si="11">D20*E20</f>
-        <v>1371</v>
+        <f t="shared" si="11"/>
+        <v>1347</v>
       </c>
       <c r="G20" s="5">
         <f>SUM(F20,F21)</f>
-        <v>1849</v>
+        <v>2076</v>
       </c>
       <c r="H20" s="5">
-        <v>1849</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1044,49 +1053,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.39</v>
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="11"/>
-        <v>478</v>
+        <v>729</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>43344</v>
+        <v>43619</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="10"/>
-        <v>500</v>
+        <f t="shared" si="12"/>
+        <v>300</v>
       </c>
       <c r="E22" s="7">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" si="11"/>
-        <v>2250</v>
+        <f t="shared" ref="F22:F27" si="13">D22*E22</f>
+        <v>1371</v>
       </c>
       <c r="G22" s="5">
         <f>SUM(F22,F23)</f>
-        <v>2955</v>
+        <v>1849</v>
       </c>
       <c r="H22" s="5">
-        <v>2955</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1095,49 +1104,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="10"/>
-        <v>300</v>
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E23" s="2">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="11"/>
-        <v>705</v>
+        <f t="shared" si="13"/>
+        <v>478</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>43288</v>
+        <v>43344</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="D24" s="2">
-        <f>SUM(C24,-C26)</f>
-        <v>200</v>
+        <f t="shared" si="12"/>
+        <v>500</v>
       </c>
       <c r="E24" s="7">
         <v>4.5</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="11"/>
-        <v>900</v>
+        <f t="shared" si="13"/>
+        <v>2250</v>
       </c>
       <c r="G24" s="5">
         <f>SUM(F24,F25)</f>
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
       <c r="H24" s="5">
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1146,73 +1155,124 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="D25" s="2">
-        <f>SUM(C25,-C27)</f>
-        <v>250</v>
+        <f t="shared" si="12"/>
+        <v>300</v>
       </c>
       <c r="E25" s="2">
         <v>2.35</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="11"/>
-        <v>587.5</v>
+        <f t="shared" si="13"/>
+        <v>705</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43036</v>
+        <v>43288</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="4">
-        <v>4500</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="5"/>
+      <c r="C26" s="2">
+        <v>4700</v>
+      </c>
+      <c r="D26" s="2">
+        <f>SUM(C26,-C28)</f>
+        <v>200</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="13"/>
+        <v>900</v>
+      </c>
+      <c r="G26" s="5">
+        <f>SUM(F26,F27)</f>
+        <v>1487.5</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1487.5</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4">
-        <v>2350</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="11"/>
+      <c r="C27" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D27" s="2">
+        <f>SUM(C27,-C29)</f>
+        <v>250</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="13"/>
+        <v>587.5</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="12" t="s">
+      <c r="A28" s="3">
+        <v>43036</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2350</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="5">
-        <f>SUM(G6:G27)</f>
-        <v>20638.5</v>
-      </c>
-      <c r="H28" s="5">
-        <f>SUM(H6:H27)</f>
-        <v>20383.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="12" t="s">
+      <c r="G30" s="5">
+        <f>SUM(G2:G29)</f>
+        <v>24955.5</v>
+      </c>
+      <c r="H30" s="5">
+        <f>SUM(H2:H29)</f>
+        <v>23503.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13">
-        <f>SUM(H28,-G28)</f>
-        <v>-255</v>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13">
+        <f>SUM(H30,-G30)</f>
+        <v>-1452</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/10ee.xlsx
+++ b/sputnik/personal/ee/10ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -512,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -561,31 +561,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>44390</v>
+        <v>44473</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>8400</v>
+        <v>8650</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E2" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1413</v>
+        <v>1240</v>
       </c>
       <c r="G2" s="17">
         <f>SUM(F2,F3)</f>
-        <v>1795.5</v>
+        <v>1776</v>
       </c>
       <c r="H2" s="17">
-        <v>1795.5</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -594,49 +594,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E3" s="7">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="1"/>
-        <v>382.5</v>
+        <v>536</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>44347</v>
+        <v>44390</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>471</v>
-      </c>
-      <c r="G4" s="14">
+        <v>1413</v>
+      </c>
+      <c r="G4" s="17">
         <f>SUM(F4,F5)</f>
-        <v>598.5</v>
-      </c>
-      <c r="H4" s="14">
-        <v>598.5</v>
+        <v>1795.5</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1795.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -645,49 +645,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>5050</v>
+        <v>5200</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E5" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="3"/>
-        <v>127.49999999999999</v>
+        <v>382.5</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>44158</v>
+        <v>44347</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D6" s="16">
-        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
-        <v>300</v>
+        <v>8100</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>100</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>1413</v>
+        <v>471</v>
       </c>
       <c r="G6" s="14">
         <f>SUM(F6,F7)</f>
-        <v>1923</v>
+        <v>598.5</v>
       </c>
       <c r="H6" s="14">
-        <v>726</v>
+        <v>598.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -696,68 +696,68 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D7" s="16">
+        <v>5050</v>
+      </c>
+      <c r="D7" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="5"/>
-        <v>509.99999999999994</v>
+        <v>127.49999999999999</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>44099</v>
+      <c r="A8" s="8">
+        <v>44158</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>7700</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <v>8000</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
+        <v>300</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>942</v>
-      </c>
-      <c r="G8" s="5">
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>1413</v>
+      </c>
+      <c r="G8" s="14">
         <f>SUM(F8,F9)</f>
-        <v>1452</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1452</v>
+        <v>1923</v>
+      </c>
+      <c r="H8" s="14">
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>4800</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="E9" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>509.99999999999994</v>
       </c>
       <c r="G9" s="2"/>
@@ -765,31 +765,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>44060</v>
+        <v>44099</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="4"/>
-        <v>400</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>1884</v>
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
+        <v>942</v>
       </c>
       <c r="G10" s="5">
         <f>SUM(F10,F11)</f>
-        <v>2649</v>
+        <v>1452</v>
       </c>
       <c r="H10" s="5">
-        <v>2394</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,49 +798,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E11" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="7"/>
-        <v>765</v>
+        <f t="shared" si="8"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>44018</v>
+        <v>44060</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="4"/>
-        <v>500</v>
+        <f t="shared" si="6"/>
+        <v>400</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
-        <v>2355</v>
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>1884</v>
       </c>
       <c r="G12" s="5">
         <f>SUM(F12,F13)</f>
-        <v>3120</v>
+        <v>2649</v>
       </c>
       <c r="H12" s="5">
-        <v>3120</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -849,17 +849,17 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="E13" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>765</v>
       </c>
       <c r="G13" s="2"/>
@@ -867,31 +867,31 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>43963</v>
+        <v>44018</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D19" si="9">SUM(C14,-C16)</f>
-        <v>400</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="E14" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" ref="F14:F15" si="10">D14*E14</f>
-        <v>1796</v>
+        <v>2355</v>
       </c>
       <c r="G14" s="5">
         <f>SUM(F14,F15)</f>
-        <v>2525</v>
+        <v>3120</v>
       </c>
       <c r="H14" s="5">
-        <v>2525</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -900,100 +900,100 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="E15" s="7">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="10"/>
-        <v>729</v>
+        <v>765</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>43774</v>
+        <v>43963</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="9"/>
-        <v>200</v>
+        <f t="shared" ref="D16:D21" si="11">SUM(C16,-C18)</f>
+        <v>400</v>
       </c>
       <c r="E16" s="7">
         <v>4.49</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" ref="F16:F21" si="11">D16*E16</f>
-        <v>898</v>
+        <f t="shared" ref="F16:F17" si="12">D16*E16</f>
+        <v>1796</v>
       </c>
       <c r="G16" s="5">
         <f>SUM(F16,F17)</f>
-        <v>1141</v>
+        <v>2525</v>
       </c>
       <c r="H16" s="5">
-        <v>1141</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f t="shared" si="11"/>
+        <v>300</v>
       </c>
       <c r="E17" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="11"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="12"/>
+        <v>729</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>43738</v>
+      <c r="A18" s="15">
+        <v>43774</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="E18" s="7">
         <v>4.49</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F18:F23" si="13">D18*E18</f>
         <v>898</v>
       </c>
       <c r="G18" s="5">
         <f>SUM(F18,F19)</f>
-        <v>1384</v>
+        <v>1141</v>
       </c>
       <c r="H18" s="5">
-        <v>1384</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1002,49 +1002,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="9"/>
-        <v>200</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="E19" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="11"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="13"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43675</v>
+        <v>43738</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20:D25" si="12">SUM(C20,-C22)</f>
-        <v>300</v>
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
       <c r="E20" s="7">
         <v>4.49</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="11"/>
-        <v>1347</v>
+        <f t="shared" si="13"/>
+        <v>898</v>
       </c>
       <c r="G20" s="5">
         <f>SUM(F20,F21)</f>
-        <v>2076</v>
+        <v>1384</v>
       </c>
       <c r="H20" s="5">
-        <v>2076</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1053,49 +1053,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="12"/>
-        <v>300</v>
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
       <c r="E21" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="11"/>
-        <v>729</v>
+        <f t="shared" si="13"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>43619</v>
+        <v>43675</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D22:D27" si="14">SUM(C22,-C24)</f>
         <v>300</v>
       </c>
       <c r="E22" s="7">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" ref="F22:F27" si="13">D22*E22</f>
-        <v>1371</v>
+        <f t="shared" si="13"/>
+        <v>1347</v>
       </c>
       <c r="G22" s="5">
         <f>SUM(F22,F23)</f>
-        <v>1849</v>
+        <v>2076</v>
       </c>
       <c r="H22" s="5">
-        <v>1849</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1104,49 +1104,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="12"/>
-        <v>200</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.39</v>
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="13"/>
-        <v>478</v>
+        <v>729</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>43344</v>
+        <v>43619</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="12"/>
-        <v>500</v>
+        <f t="shared" si="14"/>
+        <v>300</v>
       </c>
       <c r="E24" s="7">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="13"/>
-        <v>2250</v>
+        <f t="shared" ref="F24:F29" si="15">D24*E24</f>
+        <v>1371</v>
       </c>
       <c r="G24" s="5">
         <f>SUM(F24,F25)</f>
-        <v>2955</v>
+        <v>1849</v>
       </c>
       <c r="H24" s="5">
-        <v>2955</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,49 +1155,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="12"/>
-        <v>300</v>
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E25" s="2">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="13"/>
-        <v>705</v>
+        <f t="shared" si="15"/>
+        <v>478</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43288</v>
+        <v>43344</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="D26" s="2">
-        <f>SUM(C26,-C28)</f>
-        <v>200</v>
+        <f t="shared" si="14"/>
+        <v>500</v>
       </c>
       <c r="E26" s="7">
         <v>4.5</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="13"/>
-        <v>900</v>
+        <f t="shared" si="15"/>
+        <v>2250</v>
       </c>
       <c r="G26" s="5">
         <f>SUM(F26,F27)</f>
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
       <c r="H26" s="5">
-        <v>1487.5</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,72 +1206,123 @@
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="D27" s="2">
-        <f>SUM(C27,-C29)</f>
-        <v>250</v>
+        <f t="shared" si="14"/>
+        <v>300</v>
       </c>
       <c r="E27" s="2">
         <v>2.35</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="13"/>
-        <v>587.5</v>
+        <f t="shared" si="15"/>
+        <v>705</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>43036</v>
+        <v>43288</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="4">
-        <v>4500</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="5"/>
+      <c r="C28" s="2">
+        <v>4700</v>
+      </c>
+      <c r="D28" s="2">
+        <f>SUM(C28,-C30)</f>
+        <v>200</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="15"/>
+        <v>900</v>
+      </c>
+      <c r="G28" s="5">
+        <f>SUM(F28,F29)</f>
+        <v>1487.5</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1487.5</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="4">
-        <v>2350</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="11"/>
+      <c r="C29" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D29" s="2">
+        <f>SUM(C29,-C31)</f>
+        <v>250</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="15"/>
+        <v>587.5</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="12" t="s">
+      <c r="A30" s="3">
+        <v>43036</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2350</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="5">
-        <f>SUM(G2:G29)</f>
+      <c r="G32" s="5">
+        <f>SUM(G4:G31)</f>
         <v>24955.5</v>
       </c>
-      <c r="H30" s="5">
-        <f>SUM(H2:H29)</f>
+      <c r="H32" s="5">
+        <f>SUM(H4:H31)</f>
         <v>23503.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="12" t="s">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13">
-        <f>SUM(H30,-G30)</f>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13">
+        <f>SUM(H32,-G32)</f>
         <v>-1452</v>
       </c>
     </row>
